--- a/AmpedBiz/.data/ImportFiles/Nicon/default_uom.xlsx
+++ b/AmpedBiz/.data/ImportFiles/Nicon/default_uom.xlsx
@@ -9,12 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21576" windowHeight="8052"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20736" windowHeight="8052"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511" iterateDelta="1E-4"/>
+  <calcPr calcId="144525" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="44">
   <si>
     <t>ID</t>
   </si>
@@ -72,6 +72,90 @@
   </si>
   <si>
     <t>pcs</t>
+  </si>
+  <si>
+    <t>box</t>
+  </si>
+  <si>
+    <t>Box</t>
+  </si>
+  <si>
+    <t>case</t>
+  </si>
+  <si>
+    <t>Case</t>
+  </si>
+  <si>
+    <t>tie</t>
+  </si>
+  <si>
+    <t>Tie</t>
+  </si>
+  <si>
+    <t>8 Tie</t>
+  </si>
+  <si>
+    <t>8 tie</t>
+  </si>
+  <si>
+    <t>10 tie</t>
+  </si>
+  <si>
+    <t>10 Tie</t>
+  </si>
+  <si>
+    <t>sck</t>
+  </si>
+  <si>
+    <t>Sack</t>
+  </si>
+  <si>
+    <t>three frth</t>
+  </si>
+  <si>
+    <t>Three Fourth</t>
+  </si>
+  <si>
+    <t>3 Pack</t>
+  </si>
+  <si>
+    <t>4 Pack</t>
+  </si>
+  <si>
+    <t>3 pck</t>
+  </si>
+  <si>
+    <t>4 pck</t>
+  </si>
+  <si>
+    <t>5 pck</t>
+  </si>
+  <si>
+    <t>5 Pack</t>
+  </si>
+  <si>
+    <t>15 pck</t>
+  </si>
+  <si>
+    <t>15 Pack</t>
+  </si>
+  <si>
+    <t>24 case</t>
+  </si>
+  <si>
+    <t>30 case</t>
+  </si>
+  <si>
+    <t>24 Case</t>
+  </si>
+  <si>
+    <t>30 Case</t>
+  </si>
+  <si>
+    <t>9 tie</t>
+  </si>
+  <si>
+    <t>9 Tie</t>
   </si>
 </sst>
 </file>
@@ -924,10 +1008,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B294"/>
+  <dimension ref="A1:B296"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -971,106 +1055,181 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>5</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B9" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B9" s="1"/>
-    </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B10" s="1"/>
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B11" s="1"/>
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B12" s="1"/>
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B13" s="1"/>
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B14" s="1"/>
+      <c r="A14" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B15" s="1"/>
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B16" s="1"/>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B17" s="1"/>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B18" s="1"/>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B19" s="1"/>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B20" s="1"/>
-    </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B21" s="1"/>
-    </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B22" s="1"/>
-    </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B23" s="1"/>
-    </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>36</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>38</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>39</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B24" s="1"/>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B25" s="1"/>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B26" s="1"/>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B27" s="1"/>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B29" s="1"/>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B30" s="1"/>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B31" s="1"/>
     </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B32" s="1"/>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.3">
@@ -1858,6 +2017,12 @@
     </row>
     <row r="294" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B294" s="1"/>
+    </row>
+    <row r="295" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B295" s="1"/>
+    </row>
+    <row r="296" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B296" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
